--- a/all_df_copy_na.xlsx
+++ b/all_df_copy_na.xlsx
@@ -565,7 +565,7 @@
         <v>109500</v>
       </c>
       <c r="O2" t="n">
-        <v>2.468639269406393</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>2190000</v>
       </c>
       <c r="O3" t="n">
-        <v>1.222363470319635</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -691,7 +691,7 @@
         <v>1436640</v>
       </c>
       <c r="O4" t="n">
-        <v>1.80821430560196</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="5">
@@ -754,7 +754,7 @@
         <v>2555000</v>
       </c>
       <c r="O5" t="n">
-        <v>1.473613698630137</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6">
@@ -817,7 +817,7 @@
         <v>693500</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3201268925739</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7">
@@ -880,7 +880,7 @@
         <v>73000</v>
       </c>
       <c r="O7" t="n">
-        <v>3.143219178082192</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="8">
@@ -943,7 +943,7 @@
         <v>1051200</v>
       </c>
       <c r="O8" t="n">
-        <v>1.326731354642314</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
@@ -1006,7 +1006,7 @@
         <v>317550</v>
       </c>
       <c r="O9" t="n">
-        <v>1.729063139663045</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="10">
@@ -1069,7 +1069,7 @@
         <v>1916250</v>
       </c>
       <c r="O10" t="n">
-        <v>1.288817221135029</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         <v>73000</v>
       </c>
       <c r="O11" t="n">
-        <v>1.215630136986301</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="12">
@@ -1195,7 +1195,7 @@
         <v>109500</v>
       </c>
       <c r="O12" t="n">
-        <v>2.353114155251141</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="13">
@@ -1258,7 +1258,7 @@
         <v>2190000</v>
       </c>
       <c r="O13" t="n">
-        <v>1.241814611872146</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="14">
@@ -1321,7 +1321,7 @@
         <v>1436640</v>
       </c>
       <c r="O14" t="n">
-        <v>1.937033634034971</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="15">
@@ -1384,7 +1384,7 @@
         <v>2555000</v>
       </c>
       <c r="O15" t="n">
-        <v>1.430891976516634</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="16">
@@ -1447,7 +1447,7 @@
         <v>693500</v>
       </c>
       <c r="O16" t="n">
-        <v>1.334790194664744</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="17">
@@ -1510,7 +1510,7 @@
         <v>73000</v>
       </c>
       <c r="O17" t="n">
-        <v>3.350383561643836</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="18">
@@ -1573,7 +1573,7 @@
         <v>317550</v>
       </c>
       <c r="O18" t="n">
-        <v>1.513525429066289</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="19">
@@ -1636,7 +1636,7 @@
         <v>1916250</v>
       </c>
       <c r="O19" t="n">
-        <v>1.254310241356817</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="20">
@@ -1699,7 +1699,7 @@
         <v>73000</v>
       </c>
       <c r="O20" t="n">
-        <v>1.200082191780822</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="21">
@@ -1762,7 +1762,7 @@
         <v>10220000</v>
       </c>
       <c r="O21" t="n">
-        <v>1.059317416829746</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="22">
@@ -1825,7 +1825,7 @@
         <v>109500</v>
       </c>
       <c r="O22" t="n">
-        <v>2.446529680365297</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="23">
@@ -1888,7 +1888,7 @@
         <v>2190000</v>
       </c>
       <c r="O23" t="n">
-        <v>1.398192694063927</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="24">
@@ -1951,7 +1951,7 @@
         <v>1436640</v>
       </c>
       <c r="O24" t="n">
-        <v>2.156444203140662</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="25">
@@ -2014,7 +2014,7 @@
         <v>1000100</v>
       </c>
       <c r="O25" t="n">
-        <v>1.120620937906209</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="26">
@@ -2077,7 +2077,7 @@
         <v>1825000</v>
       </c>
       <c r="O26" t="n">
-        <v>1.007871780821918</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="27">
@@ -2140,7 +2140,7 @@
         <v>2555000</v>
       </c>
       <c r="O27" t="n">
-        <v>1.417418003913894</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="28">
@@ -2203,7 +2203,7 @@
         <v>693500</v>
       </c>
       <c r="O28" t="n">
-        <v>1.440516222062004</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="29">
@@ -2266,7 +2266,7 @@
         <v>73000</v>
       </c>
       <c r="O29" t="n">
-        <v>3.873835616438356</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="30">
@@ -2329,7 +2329,7 @@
         <v>317550</v>
       </c>
       <c r="O30" t="n">
-        <v>1.357370492835774</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="31">
@@ -2392,7 +2392,7 @@
         <v>1916250</v>
       </c>
       <c r="O31" t="n">
-        <v>1.281321852576647</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="32">
@@ -2455,7 +2455,7 @@
         <v>73000</v>
       </c>
       <c r="O32" t="n">
-        <v>1.443821917808219</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="33">
@@ -2518,7 +2518,7 @@
         <v>106145</v>
       </c>
       <c r="O33" t="n">
-        <v>1.003457534504687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2581,7 +2581,7 @@
         <v>693500</v>
       </c>
       <c r="O34" t="n">
-        <v>1.274428262436914</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="35">
@@ -2644,7 +2644,7 @@
         <v>73000</v>
       </c>
       <c r="O35" t="n">
-        <v>1.232082191780822</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="36">
@@ -2707,7 +2707,7 @@
         <v>10220000</v>
       </c>
       <c r="O36" t="n">
-        <v>1.114760371819961</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="37">
@@ -2770,7 +2770,7 @@
         <v>693500</v>
       </c>
       <c r="O37" t="n">
-        <v>1.778827685652487</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="38">
@@ -2833,7 +2833,7 @@
         <v>73000</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27854794520548</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="39">
@@ -2896,7 +2896,7 @@
         <v>10220000</v>
       </c>
       <c r="O39" t="n">
-        <v>1.171435322896282</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="40">
@@ -2959,7 +2959,7 @@
         <v>1436640</v>
       </c>
       <c r="O40" t="n">
-        <v>1.707490394253258</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="41">
@@ -3022,7 +3022,7 @@
         <v>1000100</v>
       </c>
       <c r="O41" t="n">
-        <v>1.489070092990701</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="42">
@@ -3085,7 +3085,7 @@
         <v>693500</v>
       </c>
       <c r="O42" t="n">
-        <v>1.898317231434751</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="43">
@@ -3148,7 +3148,7 @@
         <v>73000</v>
       </c>
       <c r="O43" t="n">
-        <v>1.321041095890411</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="44">
@@ -3211,7 +3211,7 @@
         <v>456250</v>
       </c>
       <c r="O44" t="n">
-        <v>3.877650410958904</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="45">
@@ -3274,7 +3274,7 @@
         <v>328500</v>
       </c>
       <c r="O45" t="n">
-        <v>1.944913242009132</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="46">
@@ -3337,7 +3337,7 @@
         <v>547500</v>
       </c>
       <c r="O46" t="n">
-        <v>1.613210958904109</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="47">
@@ -3400,7 +3400,7 @@
         <v>73000</v>
       </c>
       <c r="O47" t="n">
-        <v>8.643109589041096</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3463,7 +3463,7 @@
         <v>255500</v>
       </c>
       <c r="O48" t="n">
-        <v>2.761573385518591</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="49">
@@ -3526,7 +3526,7 @@
         <v>109500</v>
       </c>
       <c r="O49" t="n">
-        <v>2.967872146118721</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="50">
@@ -3589,7 +3589,7 @@
         <v>273750</v>
       </c>
       <c r="O50" t="n">
-        <v>1.584821917808219</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="51">
@@ -3652,7 +3652,7 @@
         <v>182500</v>
       </c>
       <c r="O51" t="n">
-        <v>1.307260273972603</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="52">
@@ -3715,7 +3715,7 @@
         <v>138700</v>
       </c>
       <c r="O52" t="n">
-        <v>2.956330209084355</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="53">
@@ -3778,7 +3778,7 @@
         <v>438000</v>
       </c>
       <c r="O53" t="n">
-        <v>1.197440639269406</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="54">
@@ -3841,7 +3841,7 @@
         <v>109500</v>
       </c>
       <c r="O54" t="n">
-        <v>2.333068493150685</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="55">
@@ -3904,7 +3904,7 @@
         <v>80300</v>
       </c>
       <c r="O55" t="n">
-        <v>2.630074719800747</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="56">
@@ -3967,7 +3967,7 @@
         <v>164250</v>
       </c>
       <c r="O56" t="n">
-        <v>3.331433789954338</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="57">
@@ -4030,7 +4030,7 @@
         <v>284700</v>
       </c>
       <c r="O57" t="n">
-        <v>1.191155602388479</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="58">
@@ -4093,7 +4093,7 @@
         <v>58400</v>
       </c>
       <c r="O58" t="n">
-        <v>1.422722602739726</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="59">
@@ -4156,7 +4156,7 @@
         <v>700800</v>
       </c>
       <c r="O59" t="n">
-        <v>1.151435502283105</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="60">
@@ -4219,7 +4219,7 @@
         <v>62050</v>
       </c>
       <c r="O60" t="n">
-        <v>6.132135374697825</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="61">
@@ -4282,7 +4282,7 @@
         <v>73000</v>
       </c>
       <c r="O61" t="n">
-        <v>1.004205479452055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4345,7 +4345,7 @@
         <v>669410</v>
       </c>
       <c r="O62" t="n">
-        <v>1.049631765285849</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="63">
@@ -4408,7 +4408,7 @@
         <v>36500</v>
       </c>
       <c r="O63" t="n">
-        <v>1.306082191780822</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="64">
@@ -4471,7 +4471,7 @@
         <v>51100</v>
       </c>
       <c r="O64" t="n">
-        <v>3.020234833659491</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="65">
@@ -4534,7 +4534,7 @@
         <v>766500</v>
       </c>
       <c r="O65" t="n">
-        <v>1.14106457925636</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="66">
@@ -4597,7 +4597,7 @@
         <v>15548</v>
       </c>
       <c r="O66" t="n">
-        <v>1.11847182917417</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="67">
@@ -4660,7 +4660,7 @@
         <v>65700</v>
       </c>
       <c r="O67" t="n">
-        <v>3.283409436834094</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="68">
@@ -4723,7 +4723,7 @@
         <v>456250</v>
       </c>
       <c r="O68" t="n">
-        <v>4.199778630136986</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="69">
@@ -4786,7 +4786,7 @@
         <v>328500</v>
       </c>
       <c r="O69" t="n">
-        <v>1.772943683409437</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="70">
@@ -4849,7 +4849,7 @@
         <v>547500</v>
       </c>
       <c r="O70" t="n">
-        <v>1.595886757990868</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="71">
@@ -4912,7 +4912,7 @@
         <v>73000</v>
       </c>
       <c r="O71" t="n">
-        <v>9.069369863013698</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="72">
@@ -4975,7 +4975,7 @@
         <v>255500</v>
       </c>
       <c r="O72" t="n">
-        <v>2.556426614481409</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="73">
@@ -5038,7 +5038,7 @@
         <v>109500</v>
       </c>
       <c r="O73" t="n">
-        <v>1.107223744292237</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="74">
@@ -5101,7 +5101,7 @@
         <v>109500</v>
       </c>
       <c r="O74" t="n">
-        <v>2.655388127853881</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="75">
@@ -5164,7 +5164,7 @@
         <v>273750</v>
       </c>
       <c r="O75" t="n">
-        <v>1.531375342465753</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="76">
@@ -5227,7 +5227,7 @@
         <v>182500</v>
       </c>
       <c r="O76" t="n">
-        <v>1.301391780821918</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77">
@@ -5290,7 +5290,7 @@
         <v>138700</v>
       </c>
       <c r="O77" t="n">
-        <v>2.24182408074982</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="78">
@@ -5353,7 +5353,7 @@
         <v>438000</v>
       </c>
       <c r="O78" t="n">
-        <v>1.257913242009132</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="79">
@@ -5416,7 +5416,7 @@
         <v>109500</v>
       </c>
       <c r="O79" t="n">
-        <v>2.339223744292237</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="80">
@@ -5479,7 +5479,7 @@
         <v>80300</v>
       </c>
       <c r="O80" t="n">
-        <v>2.548194271481943</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="81">
@@ -5542,7 +5542,7 @@
         <v>164250</v>
       </c>
       <c r="O81" t="n">
-        <v>2.832103500761035</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="82">
@@ -5605,7 +5605,7 @@
         <v>284700</v>
       </c>
       <c r="O82" t="n">
-        <v>1.172255005268704</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="83">
@@ -5668,7 +5668,7 @@
         <v>58400</v>
       </c>
       <c r="O83" t="n">
-        <v>1.481438356164384</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="84">
@@ -5731,7 +5731,7 @@
         <v>700800</v>
       </c>
       <c r="O84" t="n">
-        <v>1.108133561643836</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="85">
@@ -5794,7 +5794,7 @@
         <v>62050</v>
       </c>
       <c r="O85" t="n">
-        <v>6.147719580983078</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="86">
@@ -5857,7 +5857,7 @@
         <v>669410</v>
       </c>
       <c r="O86" t="n">
-        <v>1.000336116879043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -5920,7 +5920,7 @@
         <v>36500</v>
       </c>
       <c r="O87" t="n">
-        <v>1.181013698630137</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="88">
@@ -5983,7 +5983,7 @@
         <v>51100</v>
       </c>
       <c r="O88" t="n">
-        <v>2.383757338551859</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="89">
@@ -6046,7 +6046,7 @@
         <v>766500</v>
       </c>
       <c r="O89" t="n">
-        <v>1.07009654272668</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="90">
@@ -6109,7 +6109,7 @@
         <v>15548</v>
       </c>
       <c r="O90" t="n">
-        <v>1.421790583997942</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="91">
@@ -6172,7 +6172,7 @@
         <v>65700</v>
       </c>
       <c r="O91" t="n">
-        <v>4.111719939117199</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="92">
@@ -6235,7 +6235,7 @@
         <v>456250</v>
       </c>
       <c r="O92" t="n">
-        <v>4.68389698630137</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="93">
@@ -6298,7 +6298,7 @@
         <v>328500</v>
       </c>
       <c r="O93" t="n">
-        <v>1.597412480974125</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="94">
@@ -6361,7 +6361,7 @@
         <v>547500</v>
       </c>
       <c r="O94" t="n">
-        <v>1.594147945205479</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="95">
@@ -6424,7 +6424,7 @@
         <v>73000</v>
       </c>
       <c r="O95" t="n">
-        <v>10.69021917808219</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="96">
@@ -6487,7 +6487,7 @@
         <v>255500</v>
       </c>
       <c r="O96" t="n">
-        <v>2.379898238747554</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="97">
@@ -6550,7 +6550,7 @@
         <v>109500</v>
       </c>
       <c r="O97" t="n">
-        <v>2.234995433789954</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="98">
@@ -6613,7 +6613,7 @@
         <v>273750</v>
       </c>
       <c r="O98" t="n">
-        <v>1.459766210045662</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="99">
@@ -6676,7 +6676,7 @@
         <v>182500</v>
       </c>
       <c r="O99" t="n">
-        <v>1.246953424657534</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="100">
@@ -6739,7 +6739,7 @@
         <v>138700</v>
       </c>
       <c r="O100" t="n">
-        <v>2.155450612833453</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="101">
@@ -6802,7 +6802,7 @@
         <v>438000</v>
       </c>
       <c r="O101" t="n">
-        <v>1.190632420091324</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="102">
@@ -6865,7 +6865,7 @@
         <v>109500</v>
       </c>
       <c r="O102" t="n">
-        <v>1.982694063926941</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="103">
@@ -6928,7 +6928,7 @@
         <v>80300</v>
       </c>
       <c r="O103" t="n">
-        <v>2.562988792029888</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="104">
@@ -6991,7 +6991,7 @@
         <v>164250</v>
       </c>
       <c r="O104" t="n">
-        <v>2.551056316590563</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="105">
@@ -7054,7 +7054,7 @@
         <v>284700</v>
       </c>
       <c r="O105" t="n">
-        <v>1.255296803652968</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="106">
@@ -7117,7 +7117,7 @@
         <v>58400</v>
       </c>
       <c r="O106" t="n">
-        <v>1.636763698630137</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="107">
@@ -7180,7 +7180,7 @@
         <v>700800</v>
       </c>
       <c r="O107" t="n">
-        <v>1.089028253424658</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="108">
@@ -7243,7 +7243,7 @@
         <v>62050</v>
       </c>
       <c r="O108" t="n">
-        <v>5.919307010475423</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="109">
@@ -7306,7 +7306,7 @@
         <v>73000</v>
       </c>
       <c r="O109" t="n">
-        <v>1.019890410958904</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="110">
@@ -7369,7 +7369,7 @@
         <v>36500</v>
       </c>
       <c r="O110" t="n">
-        <v>1.113315068493151</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="111">
@@ -7432,7 +7432,7 @@
         <v>51100</v>
       </c>
       <c r="O111" t="n">
-        <v>2.139745596868885</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="112">
@@ -7495,7 +7495,7 @@
         <v>766500</v>
       </c>
       <c r="O112" t="n">
-        <v>1.025806914546641</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="113">
@@ -7558,7 +7558,7 @@
         <v>15548</v>
       </c>
       <c r="O113" t="n">
-        <v>1.630756367378441</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="114">
@@ -7621,7 +7621,7 @@
         <v>65700</v>
       </c>
       <c r="O114" t="n">
-        <v>5.049543378995434</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="115">
@@ -7684,7 +7684,7 @@
         <v>456250</v>
       </c>
       <c r="O115" t="n">
-        <v>3.064635616438356</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="116">
@@ -7747,7 +7747,7 @@
         <v>73000</v>
       </c>
       <c r="O116" t="n">
-        <v>1.575534246575342</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="117">
@@ -7810,7 +7810,7 @@
         <v>109500</v>
       </c>
       <c r="O117" t="n">
-        <v>1.511662100456621</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="118">
@@ -7873,7 +7873,7 @@
         <v>138700</v>
       </c>
       <c r="O118" t="n">
-        <v>1.336510454217736</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="119">
@@ -7936,7 +7936,7 @@
         <v>109500</v>
       </c>
       <c r="O119" t="n">
-        <v>1.486401826484018</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="120">
@@ -7999,7 +7999,7 @@
         <v>62050</v>
       </c>
       <c r="O120" t="n">
-        <v>3.073231265108783</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="121">
@@ -8062,7 +8062,7 @@
         <v>65700</v>
       </c>
       <c r="O121" t="n">
-        <v>1.033226788432268</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="122">
@@ -8125,7 +8125,7 @@
         <v>456250</v>
       </c>
       <c r="O122" t="n">
-        <v>5.145933150684932</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="123">
@@ -8188,7 +8188,7 @@
         <v>73000</v>
       </c>
       <c r="O123" t="n">
-        <v>1.621287671232877</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="124">
@@ -8251,7 +8251,7 @@
         <v>109500</v>
       </c>
       <c r="O124" t="n">
-        <v>2.208456621004566</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="125">
@@ -8314,7 +8314,7 @@
         <v>138700</v>
       </c>
       <c r="O125" t="n">
-        <v>1.796496034607066</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="126">
@@ -8377,7 +8377,7 @@
         <v>109500</v>
       </c>
       <c r="O126" t="n">
-        <v>1.87275799086758</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="127">
@@ -8440,7 +8440,7 @@
         <v>284700</v>
       </c>
       <c r="O127" t="n">
-        <v>1.205707762557078</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="128">
@@ -8503,7 +8503,7 @@
         <v>62050</v>
       </c>
       <c r="O128" t="n">
-        <v>5.990684931506849</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="129">
@@ -8566,7 +8566,7 @@
         <v>456250</v>
       </c>
       <c r="O129" t="n">
-        <v>5.235195616438356</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="130">
@@ -8629,7 +8629,7 @@
         <v>146000</v>
       </c>
       <c r="O130" t="n">
-        <v>1.367712328767123</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="131">
@@ -8692,7 +8692,7 @@
         <v>73000</v>
       </c>
       <c r="O131" t="n">
-        <v>8.199890410958904</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -8755,7 +8755,7 @@
         <v>109500</v>
       </c>
       <c r="O132" t="n">
-        <v>2.360502283105023</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="133">
@@ -8818,7 +8818,7 @@
         <v>182500</v>
       </c>
       <c r="O133" t="n">
-        <v>1.421704109589041</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="134">
@@ -8881,7 +8881,7 @@
         <v>138700</v>
       </c>
       <c r="O134" t="n">
-        <v>1.995155010814708</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -8944,7 +8944,7 @@
         <v>109500</v>
       </c>
       <c r="O135" t="n">
-        <v>2.237908675799087</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="136">
@@ -9007,7 +9007,7 @@
         <v>284700</v>
       </c>
       <c r="O136" t="n">
-        <v>1.381780821917808</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="137">
@@ -9070,7 +9070,7 @@
         <v>62050</v>
       </c>
       <c r="O137" t="n">
-        <v>5.773795326349718</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="138">
@@ -9133,7 +9133,7 @@
         <v>15548</v>
       </c>
       <c r="O138" t="n">
-        <v>1.43356058657062</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="139">
@@ -9196,7 +9196,7 @@
         <v>54750</v>
       </c>
       <c r="O139" t="n">
-        <v>1.926904109589041</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="140">
@@ -9259,7 +9259,7 @@
         <v>694</v>
       </c>
       <c r="O140" t="n">
-        <v>3.572046109510087</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="141">
@@ -9322,7 +9322,7 @@
         <v>109500</v>
       </c>
       <c r="O141" t="n">
-        <v>2.136283105022831</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="142">
@@ -9385,7 +9385,7 @@
         <v>109500</v>
       </c>
       <c r="O142" t="n">
-        <v>1.289178082191781</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="143">
@@ -9448,7 +9448,7 @@
         <v>62050</v>
       </c>
       <c r="O143" t="n">
-        <v>2.714053182917002</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="144">
@@ -9511,7 +9511,7 @@
         <v>43800</v>
       </c>
       <c r="O144" t="n">
-        <v>1.854109589041096</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="145">
@@ -9574,7 +9574,7 @@
         <v>10950</v>
       </c>
       <c r="O145" t="n">
-        <v>1.125205479452055</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="146">
@@ -9637,7 +9637,7 @@
         <v>5840</v>
       </c>
       <c r="O146" t="n">
-        <v>1.236643835616438</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="147">
@@ -9700,7 +9700,7 @@
         <v>36500</v>
       </c>
       <c r="O147" t="n">
-        <v>1.199013698630137</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="148">
@@ -9763,7 +9763,7 @@
         <v>10950</v>
       </c>
       <c r="O148" t="n">
-        <v>2.034429223744292</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="149">
@@ -9826,7 +9826,7 @@
         <v>21900</v>
       </c>
       <c r="O149" t="n">
-        <v>1.539634703196347</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="150">
@@ -9889,7 +9889,7 @@
         <v>73000</v>
       </c>
       <c r="O150" t="n">
-        <v>1.023493150684931</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="151">
@@ -9952,7 +9952,7 @@
         <v>1825</v>
       </c>
       <c r="O151" t="n">
-        <v>1.471232876712329</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="152">
@@ -10015,7 +10015,7 @@
         <v>36500</v>
       </c>
       <c r="O152" t="n">
-        <v>1.15413698630137</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="153">
@@ -10078,7 +10078,7 @@
         <v>6205</v>
       </c>
       <c r="O153" t="n">
-        <v>1.4174053182917</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="154">
@@ -10141,7 +10141,7 @@
         <v>1095</v>
       </c>
       <c r="O154" t="n">
-        <v>1.347945205479452</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="155">
@@ -10204,7 +10204,7 @@
         <v>1460</v>
       </c>
       <c r="O155" t="n">
-        <v>1.510958904109589</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="156">
@@ -10267,7 +10267,7 @@
         <v>3650</v>
       </c>
       <c r="O156" t="n">
-        <v>1.295342465753425</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="157">
@@ -10330,7 +10330,7 @@
         <v>109500</v>
       </c>
       <c r="O157" t="n">
-        <v>1.216639269406393</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="158">
@@ -10393,7 +10393,7 @@
         <v>54750</v>
       </c>
       <c r="O158" t="n">
-        <v>1.799251141552511</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="159">
@@ -10456,7 +10456,7 @@
         <v>694</v>
       </c>
       <c r="O159" t="n">
-        <v>4.64985590778098</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="160">
@@ -10519,7 +10519,7 @@
         <v>109500</v>
       </c>
       <c r="O160" t="n">
-        <v>2.21737899543379</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="161">
@@ -10582,7 +10582,7 @@
         <v>109500</v>
       </c>
       <c r="O161" t="n">
-        <v>1.350164383561644</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="162">
@@ -10645,7 +10645,7 @@
         <v>62050</v>
       </c>
       <c r="O162" t="n">
-        <v>3.450153102336825</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="163">
@@ -10708,7 +10708,7 @@
         <v>43800</v>
       </c>
       <c r="O163" t="n">
-        <v>1.974885844748858</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="164">
@@ -10771,7 +10771,7 @@
         <v>10950</v>
       </c>
       <c r="O164" t="n">
-        <v>1.3062100456621</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="165">
@@ -10834,7 +10834,7 @@
         <v>5840</v>
       </c>
       <c r="O165" t="n">
-        <v>1.107020547945206</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="166">
@@ -10897,7 +10897,7 @@
         <v>10950</v>
       </c>
       <c r="O166" t="n">
-        <v>1.944566210045662</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="167">
@@ -10960,7 +10960,7 @@
         <v>21900</v>
       </c>
       <c r="O167" t="n">
-        <v>1.459132420091324</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="168">
@@ -11023,7 +11023,7 @@
         <v>73000</v>
       </c>
       <c r="O168" t="n">
-        <v>1.059643835616438</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="169">
@@ -11149,7 +11149,7 @@
         <v>36500</v>
       </c>
       <c r="O170" t="n">
-        <v>1.35641095890411</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="171">
@@ -11212,7 +11212,7 @@
         <v>6205</v>
       </c>
       <c r="O171" t="n">
-        <v>1.27767929089444</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="172">
@@ -11275,7 +11275,7 @@
         <v>5980</v>
       </c>
       <c r="O172" t="n">
-        <v>1.309197324414716</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="173">
@@ -11338,7 +11338,7 @@
         <v>1095</v>
       </c>
       <c r="O173" t="n">
-        <v>1.698630136986301</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="174">
@@ -11401,7 +11401,7 @@
         <v>1460</v>
       </c>
       <c r="O174" t="n">
-        <v>1.467808219178082</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="175">
@@ -11464,7 +11464,7 @@
         <v>3650</v>
       </c>
       <c r="O175" t="n">
-        <v>1.303287671232877</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="176">
@@ -11527,7 +11527,7 @@
         <v>109500</v>
       </c>
       <c r="O176" t="n">
-        <v>1.169981735159817</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="177">
@@ -11590,7 +11590,7 @@
         <v>1095</v>
       </c>
       <c r="O177" t="n">
-        <v>1.020091324200913</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="178">
@@ -11653,7 +11653,7 @@
         <v>109500</v>
       </c>
       <c r="O178" t="n">
-        <v>1.007707762557078</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="179">
@@ -11716,7 +11716,7 @@
         <v>54750</v>
       </c>
       <c r="O179" t="n">
-        <v>1.774630136986301</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="180">
@@ -11779,7 +11779,7 @@
         <v>694</v>
       </c>
       <c r="O180" t="n">
-        <v>3.889048991354467</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="181">
@@ -11842,7 +11842,7 @@
         <v>109500</v>
       </c>
       <c r="O181" t="n">
-        <v>2.323552511415525</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="182">
@@ -11905,7 +11905,7 @@
         <v>109500</v>
       </c>
       <c r="O182" t="n">
-        <v>1.262374429223744</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="183">
@@ -11968,7 +11968,7 @@
         <v>62050</v>
       </c>
       <c r="O183" t="n">
-        <v>3.667703464947623</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="184">
@@ -12031,7 +12031,7 @@
         <v>43800</v>
       </c>
       <c r="O184" t="n">
-        <v>2.168744292237443</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="185">
@@ -12094,7 +12094,7 @@
         <v>10950</v>
       </c>
       <c r="O185" t="n">
-        <v>1.776986301369863</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="186">
@@ -12157,7 +12157,7 @@
         <v>5840</v>
       </c>
       <c r="O186" t="n">
-        <v>1.379965753424657</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="187">
@@ -12220,7 +12220,7 @@
         <v>10950</v>
       </c>
       <c r="O187" t="n">
-        <v>2.010684931506849</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="188">
@@ -12283,7 +12283,7 @@
         <v>21900</v>
       </c>
       <c r="O188" t="n">
-        <v>1.662100456621004</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="189">
@@ -12346,7 +12346,7 @@
         <v>73000</v>
       </c>
       <c r="O189" t="n">
-        <v>1.119109589041096</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="190">
@@ -12409,7 +12409,7 @@
         <v>1825</v>
       </c>
       <c r="O190" t="n">
-        <v>1.442191780821918</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="191">
@@ -12472,7 +12472,7 @@
         <v>36500</v>
       </c>
       <c r="O191" t="n">
-        <v>1.145260273972603</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="192">
@@ -12535,7 +12535,7 @@
         <v>6205</v>
       </c>
       <c r="O192" t="n">
-        <v>1.227719580983078</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="193">
@@ -12598,7 +12598,7 @@
         <v>365</v>
       </c>
       <c r="O193" t="n">
-        <v>1.665753424657534</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="194">
@@ -12661,7 +12661,7 @@
         <v>5980</v>
       </c>
       <c r="O194" t="n">
-        <v>1.352675585284281</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="195">
@@ -12724,7 +12724,7 @@
         <v>1095</v>
       </c>
       <c r="O195" t="n">
-        <v>1.832876712328767</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="196">
@@ -12787,7 +12787,7 @@
         <v>1460</v>
       </c>
       <c r="O196" t="n">
-        <v>1.583561643835616</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="197">
@@ -12850,7 +12850,7 @@
         <v>3650</v>
       </c>
       <c r="O197" t="n">
-        <v>1.513424657534246</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="198">
@@ -12913,7 +12913,7 @@
         <v>109500</v>
       </c>
       <c r="O198" t="n">
-        <v>1.139205479452055</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="199">
@@ -12976,7 +12976,7 @@
         <v>1095</v>
       </c>
       <c r="O199" t="n">
-        <v>1.08675799086758</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="200">
@@ -13039,7 +13039,7 @@
         <v>109500</v>
       </c>
       <c r="O200" t="n">
-        <v>1.146109589041096</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="201">
@@ -13102,7 +13102,7 @@
         <v>54750</v>
       </c>
       <c r="O201" t="n">
-        <v>1.455872146118721</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="202">
@@ -13165,7 +13165,7 @@
         <v>694</v>
       </c>
       <c r="O202" t="n">
-        <v>2.976945244956772</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="203">
@@ -13228,7 +13228,7 @@
         <v>109500</v>
       </c>
       <c r="O203" t="n">
-        <v>2.639150684931507</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="204">
@@ -13291,7 +13291,7 @@
         <v>109500</v>
       </c>
       <c r="O204" t="n">
-        <v>1.194502283105023</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="205">
@@ -13354,7 +13354,7 @@
         <v>62050</v>
       </c>
       <c r="O205" t="n">
-        <v>4.533424657534247</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="206">
@@ -13417,7 +13417,7 @@
         <v>43800</v>
       </c>
       <c r="O206" t="n">
-        <v>2.323561643835617</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="207">
@@ -13480,7 +13480,7 @@
         <v>10950</v>
       </c>
       <c r="O207" t="n">
-        <v>1.778630136986301</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="208">
@@ -13543,7 +13543,7 @@
         <v>5840</v>
       </c>
       <c r="O208" t="n">
-        <v>1.004794520547945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -13606,7 +13606,7 @@
         <v>10950</v>
       </c>
       <c r="O209" t="n">
-        <v>2.729315068493151</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="210">
@@ -13669,7 +13669,7 @@
         <v>21900</v>
       </c>
       <c r="O210" t="n">
-        <v>1.463561643835616</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="211">
@@ -13732,7 +13732,7 @@
         <v>1825</v>
       </c>
       <c r="O211" t="n">
-        <v>1.381917808219178</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="212">
@@ -13795,7 +13795,7 @@
         <v>6205</v>
       </c>
       <c r="O212" t="n">
-        <v>1.17389202256245</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="213">
@@ -13858,7 +13858,7 @@
         <v>365</v>
       </c>
       <c r="O213" t="n">
-        <v>1.594520547945205</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="214">
@@ -13921,7 +13921,7 @@
         <v>5980</v>
       </c>
       <c r="O214" t="n">
-        <v>1.210367892976589</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="215">
@@ -13984,7 +13984,7 @@
         <v>1095</v>
       </c>
       <c r="O215" t="n">
-        <v>1.694977168949772</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="216">
@@ -14047,7 +14047,7 @@
         <v>1460</v>
       </c>
       <c r="O216" t="n">
-        <v>1.901369863013699</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="217">
@@ -14110,7 +14110,7 @@
         <v>3650</v>
       </c>
       <c r="O217" t="n">
-        <v>1.326027397260274</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="218">
@@ -14173,7 +14173,7 @@
         <v>109500</v>
       </c>
       <c r="O218" t="n">
-        <v>1.233716894977169</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="219">
@@ -14236,7 +14236,7 @@
         <v>1095</v>
       </c>
       <c r="O219" t="n">
-        <v>1.050228310502283</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="220">
@@ -14299,7 +14299,7 @@
         <v>109500</v>
       </c>
       <c r="O220" t="n">
-        <v>1.402940639269406</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="221">
@@ -14362,7 +14362,7 @@
         <v>54750</v>
       </c>
       <c r="O221" t="n">
-        <v>1.83910502283105</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="222">
@@ -14425,7 +14425,7 @@
         <v>694</v>
       </c>
       <c r="O222" t="n">
-        <v>3.14985590778098</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="223">
@@ -14488,7 +14488,7 @@
         <v>109500</v>
       </c>
       <c r="O223" t="n">
-        <v>2.862264840182648</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="224">
@@ -14551,7 +14551,7 @@
         <v>109500</v>
       </c>
       <c r="O224" t="n">
-        <v>1.237552511415525</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="225">
@@ -14614,7 +14614,7 @@
         <v>62050</v>
       </c>
       <c r="O225" t="n">
-        <v>4.784480257856567</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="226">
@@ -14677,7 +14677,7 @@
         <v>43800</v>
       </c>
       <c r="O226" t="n">
-        <v>2.203219178082192</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="227">
@@ -14740,7 +14740,7 @@
         <v>10950</v>
       </c>
       <c r="O227" t="n">
-        <v>2.111415525114155</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="228">
@@ -14803,7 +14803,7 @@
         <v>10950</v>
       </c>
       <c r="O228" t="n">
-        <v>2.573333333333333</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="229">
@@ -14866,7 +14866,7 @@
         <v>21900</v>
       </c>
       <c r="O229" t="n">
-        <v>1.382922374429224</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="230">
@@ -14929,7 +14929,7 @@
         <v>3650</v>
       </c>
       <c r="O230" t="n">
-        <v>1.056986301369863</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="231">
@@ -14992,7 +14992,7 @@
         <v>73000</v>
       </c>
       <c r="O231" t="n">
-        <v>1.111369863013699</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="232">
@@ -15055,7 +15055,7 @@
         <v>1825</v>
       </c>
       <c r="O232" t="n">
-        <v>1.480547945205479</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="233">
@@ -15118,7 +15118,7 @@
         <v>36500</v>
       </c>
       <c r="O233" t="n">
-        <v>1.014849315068493</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="234">
@@ -15181,7 +15181,7 @@
         <v>6205</v>
       </c>
       <c r="O234" t="n">
-        <v>1.205962933118453</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="235">
@@ -15307,7 +15307,7 @@
         <v>5980</v>
       </c>
       <c r="O236" t="n">
-        <v>1.374916387959866</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="237">
@@ -15370,7 +15370,7 @@
         <v>1095</v>
       </c>
       <c r="O237" t="n">
-        <v>1.754337899543379</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="238">
@@ -15433,7 +15433,7 @@
         <v>1460</v>
       </c>
       <c r="O238" t="n">
-        <v>1.694520547945205</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="239">
@@ -15496,7 +15496,7 @@
         <v>3650</v>
       </c>
       <c r="O239" t="n">
-        <v>1.381369863013699</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="240">
@@ -15559,7 +15559,7 @@
         <v>109500</v>
       </c>
       <c r="O240" t="n">
-        <v>1.189561643835616</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="241">
@@ -15622,7 +15622,7 @@
         <v>1095</v>
       </c>
       <c r="O241" t="n">
-        <v>1.067579908675799</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="242">
@@ -15685,7 +15685,7 @@
         <v>109500</v>
       </c>
       <c r="O242" t="n">
-        <v>1.545315068493151</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="243">
@@ -15748,7 +15748,7 @@
         <v>54750</v>
       </c>
       <c r="O243" t="n">
-        <v>1.650155251141552</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="244">
@@ -15811,7 +15811,7 @@
         <v>694</v>
       </c>
       <c r="O244" t="n">
-        <v>2.635446685878962</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="245">
@@ -15874,7 +15874,7 @@
         <v>10950</v>
       </c>
       <c r="O245" t="n">
-        <v>7.994155251141552</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="246">
@@ -15937,7 +15937,7 @@
         <v>109500</v>
       </c>
       <c r="O246" t="n">
-        <v>2.704328767123288</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="247">
@@ -16000,7 +16000,7 @@
         <v>62050</v>
       </c>
       <c r="O247" t="n">
-        <v>4.543529411764706</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="248">
@@ -16063,7 +16063,7 @@
         <v>109500</v>
       </c>
       <c r="O248" t="n">
-        <v>1.650100456621004</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="249">
@@ -16126,7 +16126,7 @@
         <v>10950</v>
       </c>
       <c r="O249" t="n">
-        <v>3.60986301369863</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="250">
@@ -16189,7 +16189,7 @@
         <v>5840</v>
       </c>
       <c r="O250" t="n">
-        <v>1.141267123287671</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="251">
@@ -16252,7 +16252,7 @@
         <v>14600</v>
       </c>
       <c r="O251" t="n">
-        <v>15.32732876712329</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="252">
@@ -16315,7 +16315,7 @@
         <v>36500</v>
       </c>
       <c r="O252" t="n">
-        <v>1.667917808219178</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="253">
@@ -16378,7 +16378,7 @@
         <v>10950</v>
       </c>
       <c r="O253" t="n">
-        <v>5.114794520547945</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="254">
@@ -16441,7 +16441,7 @@
         <v>73000</v>
       </c>
       <c r="O254" t="n">
-        <v>1.670369863013699</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="255">
@@ -16504,7 +16504,7 @@
         <v>1825</v>
       </c>
       <c r="O255" t="n">
-        <v>1.349041095890411</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="256">
@@ -16567,7 +16567,7 @@
         <v>6205</v>
       </c>
       <c r="O256" t="n">
-        <v>1.356003223207091</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="257">
@@ -16630,7 +16630,7 @@
         <v>4380</v>
       </c>
       <c r="O257" t="n">
-        <v>6.004566210045662</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
@@ -16693,7 +16693,7 @@
         <v>7300</v>
       </c>
       <c r="O258" t="n">
-        <v>5.755479452054795</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="259">
@@ -16756,7 +16756,7 @@
         <v>18250</v>
       </c>
       <c r="O259" t="n">
-        <v>2.807945205479452</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="260">
@@ -16819,7 +16819,7 @@
         <v>365</v>
       </c>
       <c r="O260" t="n">
-        <v>1.638356164383562</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="261">
@@ -16882,7 +16882,7 @@
         <v>18250</v>
       </c>
       <c r="O261" t="n">
-        <v>1.959835616438356</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="262">
@@ -16945,7 +16945,7 @@
         <v>5980</v>
       </c>
       <c r="O262" t="n">
-        <v>1.87943143812709</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="263">
@@ -17008,7 +17008,7 @@
         <v>1095</v>
       </c>
       <c r="O263" t="n">
-        <v>1.644748858447489</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="264">
@@ -17071,7 +17071,7 @@
         <v>1460</v>
       </c>
       <c r="O264" t="n">
-        <v>1.495890410958904</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="265">
@@ -17134,7 +17134,7 @@
         <v>3650</v>
       </c>
       <c r="O265" t="n">
-        <v>1.287123287671233</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="266">
@@ -17197,7 +17197,7 @@
         <v>109500</v>
       </c>
       <c r="O266" t="n">
-        <v>1.273415525114155</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="267">
@@ -17260,7 +17260,7 @@
         <v>109500</v>
       </c>
       <c r="O267" t="n">
-        <v>1.682036529680365</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="268">
@@ -17323,7 +17323,7 @@
         <v>36500</v>
       </c>
       <c r="O268" t="n">
-        <v>2.459205479452055</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="269">
@@ -17386,7 +17386,7 @@
         <v>10950</v>
       </c>
       <c r="O269" t="n">
-        <v>1.579908675799087</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="270">
@@ -17449,7 +17449,7 @@
         <v>7300</v>
       </c>
       <c r="O270" t="n">
-        <v>1.272602739726027</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="271">
@@ -17512,7 +17512,7 @@
         <v>7300</v>
       </c>
       <c r="O271" t="n">
-        <v>2.963561643835616</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="272">
@@ -17575,7 +17575,7 @@
         <v>21900</v>
       </c>
       <c r="O272" t="n">
-        <v>1.283013698630137</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="273">
@@ -17638,7 +17638,7 @@
         <v>7300</v>
       </c>
       <c r="O273" t="n">
-        <v>1.414383561643836</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="274">
@@ -17701,7 +17701,7 @@
         <v>7300</v>
       </c>
       <c r="O274" t="n">
-        <v>2.404383561643836</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="275">
@@ -17764,7 +17764,7 @@
         <v>26280</v>
       </c>
       <c r="O275" t="n">
-        <v>1.424353120243531</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="276">
@@ -17827,7 +17827,7 @@
         <v>18250</v>
       </c>
       <c r="O276" t="n">
-        <v>1.046575342465753</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="277">
@@ -17890,7 +17890,7 @@
         <v>7300</v>
       </c>
       <c r="O277" t="n">
-        <v>1.425342465753425</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="278">
@@ -17953,7 +17953,7 @@
         <v>36500</v>
       </c>
       <c r="O278" t="n">
-        <v>2.54972602739726</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="279">
@@ -18016,7 +18016,7 @@
         <v>10950</v>
       </c>
       <c r="O279" t="n">
-        <v>1.811872146118721</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="280">
@@ -18079,7 +18079,7 @@
         <v>7300</v>
       </c>
       <c r="O280" t="n">
-        <v>1.190958904109589</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="281">
@@ -18142,7 +18142,7 @@
         <v>7300</v>
       </c>
       <c r="O281" t="n">
-        <v>2.821232876712329</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="282">
@@ -18205,7 +18205,7 @@
         <v>21900</v>
       </c>
       <c r="O282" t="n">
-        <v>1.315844748858447</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="283">
@@ -18268,7 +18268,7 @@
         <v>7300</v>
       </c>
       <c r="O283" t="n">
-        <v>1.329041095890411</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="284">
@@ -18331,7 +18331,7 @@
         <v>7300</v>
       </c>
       <c r="O284" t="n">
-        <v>2.203698630136986</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="285">
@@ -18394,7 +18394,7 @@
         <v>26280</v>
       </c>
       <c r="O285" t="n">
-        <v>1.178196347031963</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="286">
@@ -18457,7 +18457,7 @@
         <v>365</v>
       </c>
       <c r="O286" t="n">
-        <v>1.046575342465753</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="287">
@@ -18520,7 +18520,7 @@
         <v>36500</v>
       </c>
       <c r="O287" t="n">
-        <v>2.616931506849315</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="288">
@@ -18583,7 +18583,7 @@
         <v>10950</v>
       </c>
       <c r="O288" t="n">
-        <v>1.951689497716895</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="289">
@@ -18646,7 +18646,7 @@
         <v>7300</v>
       </c>
       <c r="O289" t="n">
-        <v>1.105890410958904</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="290">
@@ -18709,7 +18709,7 @@
         <v>7300</v>
       </c>
       <c r="O290" t="n">
-        <v>3.276164383561644</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="291">
@@ -18772,7 +18772,7 @@
         <v>58400</v>
       </c>
       <c r="O291" t="n">
-        <v>1.02402397260274</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="292">
@@ -18835,7 +18835,7 @@
         <v>21900</v>
       </c>
       <c r="O292" t="n">
-        <v>1.418995433789954</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="293">
@@ -18898,7 +18898,7 @@
         <v>7300</v>
       </c>
       <c r="O293" t="n">
-        <v>1.732328767123288</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="294">
@@ -18961,7 +18961,7 @@
         <v>7300</v>
       </c>
       <c r="O294" t="n">
-        <v>2.325890410958904</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="295">
@@ -19024,7 +19024,7 @@
         <v>26280</v>
       </c>
       <c r="O295" t="n">
-        <v>1.069368340943683</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="296">
@@ -19087,7 +19087,7 @@
         <v>36500</v>
       </c>
       <c r="O296" t="n">
-        <v>1.431945205479452</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="297">
@@ -19150,7 +19150,7 @@
         <v>7300</v>
       </c>
       <c r="O297" t="n">
-        <v>1.076849315068493</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="298">
@@ -19213,7 +19213,7 @@
         <v>7300</v>
       </c>
       <c r="O298" t="n">
-        <v>1.486438356164383</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="299">
@@ -19276,7 +19276,7 @@
         <v>7300</v>
       </c>
       <c r="O299" t="n">
-        <v>1.47945205479452</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="300">
@@ -19339,7 +19339,7 @@
         <v>36500</v>
       </c>
       <c r="O300" t="n">
-        <v>2.826876712328767</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="301">
@@ -19402,7 +19402,7 @@
         <v>1095</v>
       </c>
       <c r="O301" t="n">
-        <v>1.032876712328767</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="302">
@@ -19465,7 +19465,7 @@
         <v>7300</v>
       </c>
       <c r="O302" t="n">
-        <v>1.296986301369863</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="303">
@@ -19528,7 +19528,7 @@
         <v>7300</v>
       </c>
       <c r="O303" t="n">
-        <v>1.602876712328767</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="304">
@@ -19591,7 +19591,7 @@
         <v>7300</v>
       </c>
       <c r="O304" t="n">
-        <v>1.90027397260274</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="305">
@@ -19654,7 +19654,7 @@
         <v>7300</v>
       </c>
       <c r="O305" t="n">
-        <v>2.235479452054795</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="306">
@@ -19717,7 +19717,7 @@
         <v>36500</v>
       </c>
       <c r="O306" t="n">
-        <v>2.249369863013698</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="307">
@@ -19780,7 +19780,7 @@
         <v>1095</v>
       </c>
       <c r="O307" t="n">
-        <v>1.021004566210046</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="308">
@@ -19843,7 +19843,7 @@
         <v>10950</v>
       </c>
       <c r="O308" t="n">
-        <v>1.261826484018265</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="309">
@@ -19906,7 +19906,7 @@
         <v>7300</v>
       </c>
       <c r="O309" t="n">
-        <v>1.237534246575343</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="310">
@@ -19969,7 +19969,7 @@
         <v>7300</v>
       </c>
       <c r="O310" t="n">
-        <v>1.796575342465753</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="311">
@@ -20032,7 +20032,7 @@
         <v>7300</v>
       </c>
       <c r="O311" t="n">
-        <v>1.789452054794521</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="312">
@@ -20095,7 +20095,7 @@
         <v>7300</v>
       </c>
       <c r="O312" t="n">
-        <v>2.24013698630137</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="313">
@@ -20158,7 +20158,7 @@
         <v>7665</v>
       </c>
       <c r="O313" t="n">
-        <v>1.033137638617091</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="314">
@@ -20221,7 +20221,7 @@
         <v>4380</v>
       </c>
       <c r="O314" t="n">
-        <v>2.069178082191781</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="315">
@@ -20284,7 +20284,7 @@
         <v>2685000</v>
       </c>
       <c r="O315" t="n">
-        <v>1.75250800744879</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="316">
@@ -20347,7 +20347,7 @@
         <v>300000</v>
       </c>
       <c r="O316" t="n">
-        <v>42.74953333333333</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="317">
@@ -20410,7 +20410,7 @@
         <v>28400000</v>
       </c>
       <c r="O317" t="n">
-        <v>1.074553996056338</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="318">
@@ -20473,7 +20473,7 @@
         <v>4088000</v>
       </c>
       <c r="O318" t="n">
-        <v>1.217681506849315</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="319">
@@ -20536,7 +20536,7 @@
         <v>365000</v>
       </c>
       <c r="O319" t="n">
-        <v>1.663991780821918</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="320">
@@ -20599,7 +20599,7 @@
         <v>1204500</v>
       </c>
       <c r="O320" t="n">
-        <v>3.862368220838522</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="321">
@@ -20662,7 +20662,7 @@
         <v>25516785</v>
       </c>
       <c r="O321" t="n">
-        <v>1.792400354237417</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="322">
@@ -20725,7 +20725,7 @@
         <v>169253</v>
       </c>
       <c r="O322" t="n">
-        <v>932.8306162372306</v>
+        <v>932.83</v>
       </c>
     </row>
     <row r="323">
@@ -20788,7 +20788,7 @@
         <v>9125</v>
       </c>
       <c r="O323" t="n">
-        <v>1.369753424657534</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="324">
@@ -20851,7 +20851,7 @@
         <v>2685000</v>
       </c>
       <c r="O324" t="n">
-        <v>1.990611545623836</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="325">
@@ -20914,7 +20914,7 @@
         <v>309400</v>
       </c>
       <c r="O325" t="n">
-        <v>1.270607627666451</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="326">
@@ -20977,7 +20977,7 @@
         <v>300000</v>
       </c>
       <c r="O326" t="n">
-        <v>50.58732333333333</v>
+        <v>50.59</v>
       </c>
     </row>
     <row r="327">
@@ -21040,7 +21040,7 @@
         <v>28400000</v>
       </c>
       <c r="O327" t="n">
-        <v>1.817841115915493</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="328">
@@ -21103,7 +21103,7 @@
         <v>11844250</v>
       </c>
       <c r="O328" t="n">
-        <v>1.062325685459189</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="329">
@@ -21166,7 +21166,7 @@
         <v>4088000</v>
       </c>
       <c r="O329" t="n">
-        <v>1.241459637964775</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="330">
@@ -21229,7 +21229,7 @@
         <v>365000</v>
       </c>
       <c r="O330" t="n">
-        <v>1.233468493150685</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="331">
@@ -21292,7 +21292,7 @@
         <v>1204500</v>
       </c>
       <c r="O331" t="n">
-        <v>5.284428904939809</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="332">
@@ -21355,7 +21355,7 @@
         <v>25516785</v>
       </c>
       <c r="O332" t="n">
-        <v>1.774180644661935</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="333">
@@ -21418,7 +21418,7 @@
         <v>169253</v>
       </c>
       <c r="O333" t="n">
-        <v>919.5086845137162</v>
+        <v>919.51</v>
       </c>
     </row>
     <row r="334">
@@ -21481,7 +21481,7 @@
         <v>2977670</v>
       </c>
       <c r="O334" t="n">
-        <v>1.228590475103017</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="335">
@@ -21544,7 +21544,7 @@
         <v>2685000</v>
       </c>
       <c r="O335" t="n">
-        <v>1.835162011173184</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="336">
@@ -21607,7 +21607,7 @@
         <v>309400</v>
       </c>
       <c r="O336" t="n">
-        <v>1.790846800258565</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="337">
@@ -21670,7 +21670,7 @@
         <v>300000</v>
       </c>
       <c r="O337" t="n">
-        <v>65.37338</v>
+        <v>65.37</v>
       </c>
     </row>
     <row r="338">
@@ -21733,7 +21733,7 @@
         <v>28400000</v>
       </c>
       <c r="O338" t="n">
-        <v>2.612214033767606</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="339">
@@ -21796,7 +21796,7 @@
         <v>11844250</v>
       </c>
       <c r="O339" t="n">
-        <v>1.136873395529476</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="340">
@@ -21859,7 +21859,7 @@
         <v>4088000</v>
       </c>
       <c r="O340" t="n">
-        <v>1.516124266144814</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="341">
@@ -21922,7 +21922,7 @@
         <v>1204500</v>
       </c>
       <c r="O341" t="n">
-        <v>5.242167313408054</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="342">
@@ -21985,7 +21985,7 @@
         <v>25516785</v>
       </c>
       <c r="O342" t="n">
-        <v>1.728099247534515</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="343">
@@ -22048,7 +22048,7 @@
         <v>169253</v>
       </c>
       <c r="O343" t="n">
-        <v>914.0116370581319</v>
+        <v>914.01</v>
       </c>
     </row>
     <row r="344">
@@ -22111,7 +22111,7 @@
         <v>17849960</v>
       </c>
       <c r="O344" t="n">
-        <v>1.097542543736793</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="345">
@@ -22174,7 +22174,7 @@
         <v>2977670</v>
       </c>
       <c r="O345" t="n">
-        <v>1.479566909697851</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="346">
@@ -22237,7 +22237,7 @@
         <v>6999970</v>
       </c>
       <c r="O346" t="n">
-        <v>1.239577741047462</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="347">
@@ -22300,7 +22300,7 @@
         <v>2685000</v>
       </c>
       <c r="O347" t="n">
-        <v>1.605470391061453</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="348">
@@ -22363,7 +22363,7 @@
         <v>309400</v>
       </c>
       <c r="O348" t="n">
-        <v>2.391189398836458</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="349">
@@ -22426,7 +22426,7 @@
         <v>300000</v>
       </c>
       <c r="O349" t="n">
-        <v>72.72187</v>
+        <v>72.72</v>
       </c>
     </row>
     <row r="350">
@@ -22489,7 +22489,7 @@
         <v>28400000</v>
       </c>
       <c r="O350" t="n">
-        <v>2.702579291056338</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="351">
@@ -22552,7 +22552,7 @@
         <v>27010000</v>
       </c>
       <c r="O351" t="n">
-        <v>1.116889958941133</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="352">
@@ -22615,7 +22615,7 @@
         <v>11844250</v>
       </c>
       <c r="O352" t="n">
-        <v>1.111138029592418</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="353">
@@ -22678,7 +22678,7 @@
         <v>4088000</v>
       </c>
       <c r="O353" t="n">
-        <v>1.557043052837573</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="354">
@@ -22741,7 +22741,7 @@
         <v>1204500</v>
       </c>
       <c r="O354" t="n">
-        <v>5.749541727687837</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="355">
@@ -22804,7 +22804,7 @@
         <v>1095</v>
       </c>
       <c r="O355" t="n">
-        <v>3.946118721461187</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="356">
@@ -22867,7 +22867,7 @@
         <v>25516785</v>
       </c>
       <c r="O356" t="n">
-        <v>1.778896987022464</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="357">
@@ -22930,7 +22930,7 @@
         <v>169253</v>
       </c>
       <c r="O357" t="n">
-        <v>1040.143272633277</v>
+        <v>1040.14</v>
       </c>
     </row>
     <row r="358">
@@ -22993,7 +22993,7 @@
         <v>17849960</v>
       </c>
       <c r="O358" t="n">
-        <v>1.108519267158022</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="359">
@@ -23056,7 +23056,7 @@
         <v>2977670</v>
       </c>
       <c r="O359" t="n">
-        <v>1.408291718021137</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="360">
@@ -23119,7 +23119,7 @@
         <v>6999970</v>
       </c>
       <c r="O360" t="n">
-        <v>1.227299688427236</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="361">
@@ -23182,7 +23182,7 @@
         <v>2685000</v>
       </c>
       <c r="O361" t="n">
-        <v>1.612322905027933</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="362">
@@ -23245,7 +23245,7 @@
         <v>309400</v>
       </c>
       <c r="O362" t="n">
-        <v>2.8779767291532</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="363">
@@ -23308,7 +23308,7 @@
         <v>300000</v>
       </c>
       <c r="O363" t="n">
-        <v>83.29634700000001</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="364">
@@ -23371,7 +23371,7 @@
         <v>28400000</v>
       </c>
       <c r="O364" t="n">
-        <v>2.392661656021127</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="365">
@@ -23434,7 +23434,7 @@
         <v>11844250</v>
       </c>
       <c r="O365" t="n">
-        <v>1.059672100386263</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="366">
@@ -23497,7 +23497,7 @@
         <v>4088000</v>
       </c>
       <c r="O366" t="n">
-        <v>1.395587818003914</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="367">
@@ -23560,7 +23560,7 @@
         <v>1204500</v>
       </c>
       <c r="O367" t="n">
-        <v>4.778660410958904</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="368">
@@ -23623,7 +23623,7 @@
         <v>1095</v>
       </c>
       <c r="O368" t="n">
-        <v>42.91993607305935</v>
+        <v>42.92</v>
       </c>
     </row>
     <row r="369">
@@ -23686,7 +23686,7 @@
         <v>25516785</v>
       </c>
       <c r="O369" t="n">
-        <v>1.514736409622137</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="370">
@@ -23749,7 +23749,7 @@
         <v>169253</v>
       </c>
       <c r="O370" t="n">
-        <v>853.4593891552882</v>
+        <v>853.46</v>
       </c>
     </row>
     <row r="371">
@@ -23812,7 +23812,7 @@
         <v>17849960</v>
       </c>
       <c r="O371" t="n">
-        <v>1.154920722705821</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="372">
@@ -23875,7 +23875,7 @@
         <v>2977670</v>
       </c>
       <c r="O372" t="n">
-        <v>1.51271866929512</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="373">
@@ -23938,7 +23938,7 @@
         <v>34631930</v>
       </c>
       <c r="O373" t="n">
-        <v>1.047686047673346</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="374">
@@ -24001,7 +24001,7 @@
         <v>6999970</v>
       </c>
       <c r="O374" t="n">
-        <v>1.421319571369591</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="375">
@@ -24064,7 +24064,7 @@
         <v>1095</v>
       </c>
       <c r="O375" t="n">
-        <v>8.302424657534248</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="376">
@@ -24127,7 +24127,7 @@
         <v>2685000</v>
       </c>
       <c r="O376" t="n">
-        <v>1.104154450651769</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="377">
@@ -24190,7 +24190,7 @@
         <v>309400</v>
       </c>
       <c r="O377" t="n">
-        <v>3.101700064641241</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="378">
@@ -24253,7 +24253,7 @@
         <v>300000</v>
       </c>
       <c r="O378" t="n">
-        <v>93.57292566666666</v>
+        <v>93.56999999999999</v>
       </c>
     </row>
     <row r="379">
@@ -24316,7 +24316,7 @@
         <v>28400000</v>
       </c>
       <c r="O379" t="n">
-        <v>2.844384334683099</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="380">
@@ -24379,7 +24379,7 @@
         <v>14600</v>
       </c>
       <c r="O380" t="n">
-        <v>1.010856164383562</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="381">
@@ -24442,7 +24442,7 @@
         <v>1204500</v>
       </c>
       <c r="O381" t="n">
-        <v>3.473501256953093</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="382">
@@ -24505,7 +24505,7 @@
         <v>1095</v>
       </c>
       <c r="O382" t="n">
-        <v>3.774000913242009</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="383">
@@ -24568,7 +24568,7 @@
         <v>25516785</v>
       </c>
       <c r="O383" t="n">
-        <v>1.487629653853336</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="384">
@@ -24631,7 +24631,7 @@
         <v>169253</v>
       </c>
       <c r="O384" t="n">
-        <v>705.6892460866277</v>
+        <v>705.6900000000001</v>
       </c>
     </row>
     <row r="385">
@@ -24694,7 +24694,7 @@
         <v>17849960</v>
       </c>
       <c r="O385" t="n">
-        <v>1.186635343160433</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="386">
@@ -24757,7 +24757,7 @@
         <v>182500</v>
       </c>
       <c r="O386" t="n">
-        <v>3.71158904109589</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="387">
@@ -24820,7 +24820,7 @@
         <v>2977670</v>
       </c>
       <c r="O387" t="n">
-        <v>1.445306565200308</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="388">
@@ -24883,7 +24883,7 @@
         <v>6999970</v>
       </c>
       <c r="O388" t="n">
-        <v>1.549239745313194</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
